--- a/Team-Data/2012-13/3-28-2012-13.xlsx
+++ b/Team-Data/2012-13/3-28-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>0.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-28-2012-13</t>
+          <t>2013-03-28</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE3" t="n">
         <v>14</v>
@@ -947,7 +1014,7 @@
         <v>27</v>
       </c>
       <c r="AK3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL3" t="n">
         <v>25</v>
@@ -956,7 +1023,7 @@
         <v>27</v>
       </c>
       <c r="AN3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO3" t="n">
         <v>18</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-28-2012-13</t>
+          <t>2013-03-28</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>1.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE4" t="n">
         <v>9</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-28-2012-13</t>
+          <t>2013-03-28</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-9.699999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
@@ -1302,7 +1369,7 @@
         <v>30</v>
       </c>
       <c r="AH5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI5" t="n">
         <v>30</v>
@@ -1335,7 +1402,7 @@
         <v>16</v>
       </c>
       <c r="AS5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT5" t="n">
         <v>27</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-28-2012-13</t>
+          <t>2013-03-28</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>0.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE6" t="n">
         <v>12</v>
@@ -1493,7 +1560,7 @@
         <v>14</v>
       </c>
       <c r="AK6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL6" t="n">
         <v>29</v>
@@ -1508,7 +1575,7 @@
         <v>19</v>
       </c>
       <c r="AP6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ6" t="n">
         <v>6</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-28-2012-13</t>
+          <t>2013-03-28</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-4.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE7" t="n">
         <v>28</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-28-2012-13</t>
+          <t>2013-03-28</t>
         </is>
       </c>
     </row>
@@ -1758,28 +1825,28 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" t="n">
         <v>35</v>
       </c>
       <c r="F8" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" t="n">
-        <v>0.486</v>
+        <v>0.493</v>
       </c>
       <c r="H8" t="n">
         <v>48.8</v>
       </c>
       <c r="I8" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="J8" t="n">
         <v>83.90000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L8" t="n">
         <v>7.5</v>
@@ -1788,28 +1855,28 @@
         <v>20.1</v>
       </c>
       <c r="N8" t="n">
-        <v>0.373</v>
+        <v>0.374</v>
       </c>
       <c r="O8" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="P8" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.794</v>
+        <v>0.795</v>
       </c>
       <c r="R8" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="S8" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="T8" t="n">
-        <v>41.8</v>
+        <v>42</v>
       </c>
       <c r="U8" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="V8" t="n">
         <v>14.2</v>
@@ -1830,22 +1897,22 @@
         <v>19.2</v>
       </c>
       <c r="AB8" t="n">
-        <v>101.4</v>
+        <v>101.8</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AE8" t="n">
         <v>17</v>
       </c>
       <c r="AF8" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH8" t="n">
         <v>3</v>
@@ -1857,13 +1924,13 @@
         <v>6</v>
       </c>
       <c r="AK8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL8" t="n">
         <v>11</v>
       </c>
       <c r="AM8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN8" t="n">
         <v>6</v>
@@ -1872,7 +1939,7 @@
         <v>16</v>
       </c>
       <c r="AP8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ8" t="n">
         <v>2</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-28-2012-13</t>
+          <t>2013-03-28</t>
         </is>
       </c>
     </row>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-28-2012-13</t>
+          <t>2013-03-28</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-4.9</v>
       </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
         <v>26</v>
@@ -2230,7 +2297,7 @@
         <v>24</v>
       </c>
       <c r="AN10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO10" t="n">
         <v>23</v>
@@ -2260,7 +2327,7 @@
         <v>26</v>
       </c>
       <c r="AX10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY10" t="n">
         <v>20</v>
@@ -2275,7 +2342,7 @@
         <v>25</v>
       </c>
       <c r="BC10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-28-2012-13</t>
+          <t>2013-03-28</t>
         </is>
       </c>
     </row>
@@ -2394,7 +2461,7 @@
         <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
         <v>10</v>
@@ -2430,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="AT11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU11" t="n">
         <v>14</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-28-2012-13</t>
+          <t>2013-03-28</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>3.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE12" t="n">
         <v>12</v>
@@ -2579,7 +2646,7 @@
         <v>23</v>
       </c>
       <c r="AI12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-28-2012-13</t>
+          <t>2013-03-28</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F13" t="n">
         <v>27</v>
       </c>
       <c r="G13" t="n">
-        <v>0.63</v>
+        <v>0.625</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
@@ -2686,46 +2753,46 @@
         <v>35.2</v>
       </c>
       <c r="J13" t="n">
-        <v>81</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.435</v>
+        <v>0.434</v>
       </c>
       <c r="L13" t="n">
         <v>7</v>
       </c>
       <c r="M13" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="N13" t="n">
-        <v>0.356</v>
+        <v>0.355</v>
       </c>
       <c r="O13" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="P13" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.75</v>
+        <v>0.752</v>
       </c>
       <c r="R13" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="S13" t="n">
         <v>33.5</v>
       </c>
       <c r="T13" t="n">
-        <v>46.4</v>
+        <v>46.3</v>
       </c>
       <c r="U13" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V13" t="n">
         <v>15.1</v>
       </c>
       <c r="W13" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X13" t="n">
         <v>6.6</v>
@@ -2737,16 +2804,16 @@
         <v>20.1</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AB13" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE13" t="n">
         <v>7</v>
@@ -2755,10 +2822,10 @@
         <v>8</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
@@ -2767,7 +2834,7 @@
         <v>23</v>
       </c>
       <c r="AK13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL13" t="n">
         <v>15</v>
@@ -2776,7 +2843,7 @@
         <v>15</v>
       </c>
       <c r="AN13" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AO13" t="n">
         <v>12</v>
@@ -2800,7 +2867,7 @@
         <v>27</v>
       </c>
       <c r="AV13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW13" t="n">
         <v>25</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-28-2012-13</t>
+          <t>2013-03-28</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>6.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE14" t="n">
         <v>4</v>
@@ -2958,7 +3025,7 @@
         <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO14" t="n">
         <v>17</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-28-2012-13</t>
+          <t>2013-03-28</t>
         </is>
       </c>
     </row>
@@ -3032,22 +3099,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" t="n">
         <v>37</v>
       </c>
       <c r="F15" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15" t="n">
-        <v>0.507</v>
+        <v>0.514</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>37.2</v>
+        <v>37.3</v>
       </c>
       <c r="J15" t="n">
         <v>81.3</v>
@@ -3059,34 +3126,34 @@
         <v>8.800000000000001</v>
       </c>
       <c r="M15" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="N15" t="n">
-        <v>0.358</v>
+        <v>0.36</v>
       </c>
       <c r="O15" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="P15" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="R15" t="n">
         <v>11.5</v>
       </c>
       <c r="S15" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="T15" t="n">
-        <v>44.7</v>
+        <v>44.8</v>
       </c>
       <c r="U15" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="V15" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W15" t="n">
         <v>7.1</v>
@@ -3107,10 +3174,10 @@
         <v>102.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE15" t="n">
         <v>14</v>
@@ -3122,7 +3189,7 @@
         <v>15</v>
       </c>
       <c r="AH15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI15" t="n">
         <v>14</v>
@@ -3146,7 +3213,7 @@
         <v>4</v>
       </c>
       <c r="AP15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ15" t="n">
         <v>30</v>
@@ -3158,7 +3225,7 @@
         <v>3</v>
       </c>
       <c r="AT15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU15" t="n">
         <v>17</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-28-2012-13</t>
+          <t>2013-03-28</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>3.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE16" t="n">
         <v>6</v>
@@ -3304,7 +3371,7 @@
         <v>6</v>
       </c>
       <c r="AH16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI16" t="n">
         <v>22</v>
@@ -3328,7 +3395,7 @@
         <v>20</v>
       </c>
       <c r="AP16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ16" t="n">
         <v>7</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-28-2012-13</t>
+          <t>2013-03-28</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>7.9</v>
       </c>
       <c r="AD17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE17" t="n">
         <v>1</v>
@@ -3525,7 +3592,7 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV17" t="n">
         <v>3</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-28-2012-13</t>
+          <t>2013-03-28</t>
         </is>
       </c>
     </row>
@@ -3578,25 +3645,25 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E18" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18" t="n">
         <v>36</v>
       </c>
       <c r="G18" t="n">
-        <v>0.493</v>
+        <v>0.486</v>
       </c>
       <c r="H18" t="n">
         <v>48.4</v>
       </c>
       <c r="I18" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J18" t="n">
-        <v>87.5</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K18" t="n">
         <v>0.436</v>
@@ -3608,7 +3675,7 @@
         <v>19.2</v>
       </c>
       <c r="N18" t="n">
-        <v>0.355</v>
+        <v>0.354</v>
       </c>
       <c r="O18" t="n">
         <v>15.6</v>
@@ -3620,10 +3687,10 @@
         <v>0.739</v>
       </c>
       <c r="R18" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="S18" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="T18" t="n">
         <v>43.9</v>
@@ -3644,40 +3711,40 @@
         <v>4.4</v>
       </c>
       <c r="Z18" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AA18" t="n">
         <v>19.3</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.8</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>-1.4</v>
+        <v>-1.6</v>
       </c>
       <c r="AD18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH18" t="n">
         <v>15</v>
       </c>
-      <c r="AE18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>16</v>
-      </c>
       <c r="AI18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ18" t="n">
         <v>1</v>
       </c>
       <c r="AK18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL18" t="n">
         <v>17</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-28-2012-13</t>
+          <t>2013-03-28</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-2.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE19" t="n">
         <v>24</v>
@@ -3877,7 +3944,7 @@
         <v>6</v>
       </c>
       <c r="AQ19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR19" t="n">
         <v>9</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-28-2012-13</t>
+          <t>2013-03-28</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-3.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE20" t="n">
         <v>24</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-28-2012-13</t>
+          <t>2013-03-28</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>3.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE21" t="n">
         <v>8</v>
@@ -4211,7 +4278,7 @@
         <v>7</v>
       </c>
       <c r="AG21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH21" t="n">
         <v>30</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-28-2012-13</t>
+          <t>2013-03-28</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>9.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE22" t="n">
         <v>3</v>
@@ -4420,7 +4487,7 @@
         <v>1</v>
       </c>
       <c r="AP22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-28-2012-13</t>
+          <t>2013-03-28</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-6.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-28-2012-13</t>
+          <t>2013-03-28</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-3.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE24" t="n">
         <v>20</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-28-2012-13</t>
+          <t>2013-03-28</t>
         </is>
       </c>
     </row>
@@ -4852,64 +4919,64 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E25" t="n">
         <v>23</v>
       </c>
       <c r="F25" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G25" t="n">
-        <v>0.315</v>
+        <v>0.319</v>
       </c>
       <c r="H25" t="n">
         <v>48.3</v>
       </c>
       <c r="I25" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J25" t="n">
-        <v>84.40000000000001</v>
+        <v>84.2</v>
       </c>
       <c r="K25" t="n">
         <v>0.44</v>
       </c>
       <c r="L25" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="M25" t="n">
         <v>17.6</v>
       </c>
       <c r="N25" t="n">
-        <v>0.322</v>
+        <v>0.321</v>
       </c>
       <c r="O25" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="P25" t="n">
         <v>19.8</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.732</v>
+        <v>0.735</v>
       </c>
       <c r="R25" t="n">
         <v>11.8</v>
       </c>
       <c r="S25" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="T25" t="n">
         <v>41.8</v>
       </c>
       <c r="U25" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V25" t="n">
         <v>15.4</v>
       </c>
       <c r="W25" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X25" t="n">
         <v>5.3</v>
@@ -4918,19 +4985,19 @@
         <v>5</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA25" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="AB25" t="n">
-        <v>94.40000000000001</v>
+        <v>94.3</v>
       </c>
       <c r="AC25" t="n">
-        <v>-6.5</v>
+        <v>-6.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
         <v>27</v>
@@ -4942,7 +5009,7 @@
         <v>27</v>
       </c>
       <c r="AH25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI25" t="n">
         <v>15</v>
@@ -4969,7 +5036,7 @@
         <v>26</v>
       </c>
       <c r="AQ25" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AR25" t="n">
         <v>11</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-28-2012-13</t>
+          <t>2013-03-28</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-1.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE26" t="n">
         <v>19</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-28-2012-13</t>
+          <t>2013-03-28</t>
         </is>
       </c>
     </row>
@@ -5216,28 +5283,28 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F27" t="n">
         <v>46</v>
       </c>
       <c r="G27" t="n">
-        <v>0.37</v>
+        <v>0.361</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J27" t="n">
-        <v>83.7</v>
+        <v>83.8</v>
       </c>
       <c r="K27" t="n">
-        <v>0.449</v>
+        <v>0.447</v>
       </c>
       <c r="L27" t="n">
         <v>7.4</v>
@@ -5249,22 +5316,22 @@
         <v>0.367</v>
       </c>
       <c r="O27" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="P27" t="n">
         <v>22.7</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.769</v>
+        <v>0.767</v>
       </c>
       <c r="R27" t="n">
         <v>11.4</v>
       </c>
       <c r="S27" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="T27" t="n">
-        <v>40.5</v>
+        <v>40.3</v>
       </c>
       <c r="U27" t="n">
         <v>20.7</v>
@@ -5288,13 +5355,13 @@
         <v>20</v>
       </c>
       <c r="AB27" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="AC27" t="n">
-        <v>-4.7</v>
+        <v>-5</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE27" t="n">
         <v>21</v>
@@ -5303,10 +5370,10 @@
         <v>24</v>
       </c>
       <c r="AG27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI27" t="n">
         <v>12</v>
@@ -5321,13 +5388,13 @@
         <v>12</v>
       </c>
       <c r="AM27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN27" t="n">
         <v>9</v>
       </c>
       <c r="AO27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP27" t="n">
         <v>13</v>
@@ -5339,7 +5406,7 @@
         <v>14</v>
       </c>
       <c r="AS27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT27" t="n">
         <v>26</v>
@@ -5354,7 +5421,7 @@
         <v>13</v>
       </c>
       <c r="AX27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY27" t="n">
         <v>27</v>
@@ -5369,7 +5436,7 @@
         <v>10</v>
       </c>
       <c r="BC27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-28-2012-13</t>
+          <t>2013-03-28</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>7.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE28" t="n">
         <v>2</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-28-2012-13</t>
+          <t>2013-03-28</t>
         </is>
       </c>
     </row>
@@ -5658,16 +5725,16 @@
         <v>-2.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF29" t="n">
         <v>21</v>
       </c>
       <c r="AG29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH29" t="n">
         <v>2</v>
@@ -5691,7 +5758,7 @@
         <v>25</v>
       </c>
       <c r="AO29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP29" t="n">
         <v>15</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-28-2012-13</t>
+          <t>2013-03-28</t>
         </is>
       </c>
     </row>
@@ -5840,13 +5907,13 @@
         <v>-0.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE30" t="n">
         <v>16</v>
       </c>
       <c r="AF30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG30" t="n">
         <v>16</v>
@@ -5894,7 +5961,7 @@
         <v>13</v>
       </c>
       <c r="AV30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-28-2012-13</t>
+          <t>2013-03-28</t>
         </is>
       </c>
     </row>
@@ -6022,16 +6089,16 @@
         <v>-2.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF31" t="n">
         <v>21</v>
       </c>
       <c r="AG31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH31" t="n">
         <v>8</v>
@@ -6043,7 +6110,7 @@
         <v>17</v>
       </c>
       <c r="AK31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL31" t="n">
         <v>18</v>
@@ -6061,7 +6128,7 @@
         <v>24</v>
       </c>
       <c r="AQ31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR31" t="n">
         <v>22</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-28-2012-13</t>
+          <t>2013-03-28</t>
         </is>
       </c>
     </row>
